--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data15.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data15.xlsx
@@ -282,16 +282,16 @@
         <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24734919610626344</v>
+        <v>0.24738016489534786</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1988191085240287</v>
+        <v>0.19864824348203947</v>
       </c>
       <c r="D2" t="n">
-        <v>0.30053486097227555</v>
+        <v>0.30046121950219734</v>
       </c>
       <c r="E2" t="n">
-        <v>0.32020491391755806</v>
+        <v>0.32014350731253544</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
